--- a/src/data/Agencias.xlsx
+++ b/src/data/Agencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augusto.buchino\Documents\Codigo\TypeScirpt_Carteles\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99696E5C-5541-4FB5-B113-FE2208D9BE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D15FF1-4FEE-4883-A55C-686138A5DC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Mendoza</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>Carlos</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -529,6 +535,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
     </row>
